--- a/protein-predict/data/va100Pic.xlsx
+++ b/protein-predict/data/va100Pic.xlsx
@@ -22,9 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Q27686</t>
-  </si>
-  <si>
-    <t>Q5SKN7</t>
   </si>
   <si>
     <t>P36217</t>
@@ -55,6 +52,10 @@
   </si>
   <si>
     <t>Q84424</t>
+  </si>
+  <si>
+    <t>Q5SKN7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1543,11 +1544,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-932011120"/>
-        <c:axId val="-932010576"/>
+        <c:axId val="-1989391712"/>
+        <c:axId val="-1989403680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-932011120"/>
+        <c:axId val="-1989391712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1589,7 +1590,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-932010576"/>
+        <c:crossAx val="-1989403680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1597,7 +1598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-932010576"/>
+        <c:axId val="-1989403680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1648,7 +1649,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-932011120"/>
+        <c:crossAx val="-1989391712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2246,11 +2247,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1609952688"/>
-        <c:axId val="-1609954320"/>
+        <c:axId val="-1984651840"/>
+        <c:axId val="-1984646944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1609952688"/>
+        <c:axId val="-1984651840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +2293,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1609954320"/>
+        <c:crossAx val="-1984646944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2300,7 +2301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1609954320"/>
+        <c:axId val="-1984646944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2352,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1609952688"/>
+        <c:crossAx val="-1984651840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2754,11 +2755,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-934858896"/>
-        <c:axId val="-934858352"/>
+        <c:axId val="-1984636608"/>
+        <c:axId val="-1984651296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-934858896"/>
+        <c:axId val="-1984636608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,7 +2801,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934858352"/>
+        <c:crossAx val="-1984651296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2808,7 +2809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-934858352"/>
+        <c:axId val="-1984651296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2860,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934858896"/>
+        <c:crossAx val="-1984636608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3559,11 +3560,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1044240048"/>
-        <c:axId val="-1044237328"/>
+        <c:axId val="-1984647488"/>
+        <c:axId val="-1983979600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1044240048"/>
+        <c:axId val="-1984647488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +3606,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1044237328"/>
+        <c:crossAx val="-1983979600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3613,7 +3614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1044237328"/>
+        <c:axId val="-1983979600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3665,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1044240048"/>
+        <c:crossAx val="-1984647488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,11 +3984,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-937519168"/>
-        <c:axId val="-1049986928"/>
+        <c:axId val="-1989390080"/>
+        <c:axId val="-1989399872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-937519168"/>
+        <c:axId val="-1989390080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4029,7 +4030,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1049986928"/>
+        <c:crossAx val="-1989399872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4037,7 +4038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1049986928"/>
+        <c:axId val="-1989399872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4089,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-937519168"/>
+        <c:crossAx val="-1989390080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4527,11 +4528,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-929274208"/>
-        <c:axId val="-929273664"/>
+        <c:axId val="-1989402592"/>
+        <c:axId val="-1989392800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-929274208"/>
+        <c:axId val="-1989402592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,7 +4574,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929273664"/>
+        <c:crossAx val="-1989392800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4581,7 +4582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-929273664"/>
+        <c:axId val="-1989392800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4632,7 +4633,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929274208"/>
+        <c:crossAx val="-1989402592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5584,11 +5585,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-929270400"/>
-        <c:axId val="-929274752"/>
+        <c:axId val="-1989397696"/>
+        <c:axId val="-1989397152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-929270400"/>
+        <c:axId val="-1989397696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5631,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929274752"/>
+        <c:crossAx val="-1989397152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5638,7 +5639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-929274752"/>
+        <c:axId val="-1989397152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5689,7 +5690,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929270400"/>
+        <c:crossAx val="-1989397696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6194,11 +6195,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-940399216"/>
-        <c:axId val="-940398128"/>
+        <c:axId val="-1984642048"/>
+        <c:axId val="-1984639328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-940399216"/>
+        <c:axId val="-1984642048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6240,7 +6241,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-940398128"/>
+        <c:crossAx val="-1984639328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6248,7 +6249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-940398128"/>
+        <c:axId val="-1984639328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +6300,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-940399216"/>
+        <c:crossAx val="-1984642048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6690,11 +6691,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1255252400"/>
-        <c:axId val="-1255265456"/>
+        <c:axId val="-1984650208"/>
+        <c:axId val="-1984640960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1255252400"/>
+        <c:axId val="-1984650208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6736,7 +6737,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1255265456"/>
+        <c:crossAx val="-1984640960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6744,7 +6745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1255265456"/>
+        <c:axId val="-1984640960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6795,7 +6796,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1255252400"/>
+        <c:crossAx val="-1984650208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7150,11 +7151,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1255253488"/>
-        <c:axId val="-1255264912"/>
+        <c:axId val="-1984648576"/>
+        <c:axId val="-1984649664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1255253488"/>
+        <c:axId val="-1984648576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7196,7 +7197,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1255264912"/>
+        <c:crossAx val="-1984649664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7204,7 +7205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1255264912"/>
+        <c:axId val="-1984649664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,7 +7256,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1255253488"/>
+        <c:crossAx val="-1984648576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7613,11 +7614,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-929275296"/>
-        <c:axId val="-1044240592"/>
+        <c:axId val="-1984640416"/>
+        <c:axId val="-1984644768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-929275296"/>
+        <c:axId val="-1984640416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7659,7 +7660,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1044240592"/>
+        <c:crossAx val="-1984644768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7667,7 +7668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1044240592"/>
+        <c:axId val="-1984644768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7718,7 +7719,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-929275296"/>
+        <c:crossAx val="-1984640416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8790,11 +8791,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-934862704"/>
-        <c:axId val="-934862160"/>
+        <c:axId val="-1984641504"/>
+        <c:axId val="-1984639872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-934862704"/>
+        <c:axId val="-1984641504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8836,7 +8837,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934862160"/>
+        <c:crossAx val="-1984639872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8844,7 +8845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-934862160"/>
+        <c:axId val="-1984639872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8895,7 +8896,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-934862704"/>
+        <c:crossAx val="-1984641504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16090,8 +16091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:KZ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16829,7 +16830,7 @@
     </row>
     <row r="2" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -17014,7 +17015,7 @@
     </row>
     <row r="3" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -17319,7 +17320,7 @@
     </row>
     <row r="4" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -18137,7 +18138,7 @@
     </row>
     <row r="5" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -18508,7 +18509,7 @@
     </row>
     <row r="6" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
@@ -18765,7 +18766,7 @@
     </row>
     <row r="7" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -18986,7 +18987,7 @@
     </row>
     <row r="8" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -19210,7 +19211,7 @@
     </row>
     <row r="9" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -20148,7 +20149,7 @@
     </row>
     <row r="10" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -20612,7 +20613,7 @@
     </row>
     <row r="11" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
@@ -20881,7 +20882,7 @@
     </row>
     <row r="12" spans="1:312" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>8</v>
